--- a/Config/J_技能.xlsx
+++ b/Config/J_技能.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>##</t>
   </si>
@@ -28,6 +28,9 @@
     <t>cd</t>
   </si>
   <si>
+    <t>timeline</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>技能CD</t>
+  </si>
+  <si>
+    <t>技能timeline名</t>
   </si>
   <si>
     <t>##default</t>
@@ -59,14 +65,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,48 +523,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,97 +577,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -676,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,21 +1026,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,32 +1054,38 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1088,7 +1095,7 @@
         <v>100101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1096,7 +1103,7 @@
         <v>100102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
